--- a/biology/Mycologie/Bolet_élégant/Bolet_élégant.xlsx
+++ b/biology/Mycologie/Bolet_élégant/Bolet_élégant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bolet_%C3%A9l%C3%A9gant</t>
+          <t>Bolet_élégant</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Suillus grevillei
 Suillus grevillei, le Bolet élégant, autrefois Suillus elegans ou Boletus elegans, est une espèce de champignon (Fungi) basidiomycète du genre Suillus. Il est caractérisé par son pied orné d'un anneau, ses teintes jaunâtres orangées son habitat sous mélèzes.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bolet_%C3%A9l%C3%A9gant</t>
+          <t>Bolet_élégant</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,12 +524,49 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Suillus grevillei (Klotzsch) Singer, 1945[1]. 
-L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus grevillei Klotzsch, 1832[1].
-Synonymes
-Suillus grevillei a pour synonymes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Suillus grevillei (Klotzsch) Singer, 1945. 
+L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus grevillei Klotzsch, 1832.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Bolet_élégant</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_%C3%A9l%C3%A9gant</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Suillus grevillei a pour synonymes :
 Boletinus grevillei (Klotzsch) Pomerl., 1980
 Boletinus grevillei (Klotzsch) Pomerl., 1980
 Boletus elegans Schumach., 1803
@@ -525,50 +574,6 @@
 Boletus flavus With., 1786
 Boletus grevillei Klotzsch, 1832
 Ixocomus grevillei (Klotzsch) Vassilkov, 1955
-Étymologie
-L'épithète spécifique grevillei est en hommage au mycologue Robert Kaye Greville.
-Noms vulgaires et vernaculaires
-Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Bolet élégant[2].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Bolet_%C3%A9l%C3%A9gant</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Mycologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bolet_%C3%A9l%C3%A9gant</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description du sporophore</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les bolets sont des champignons dont l’hyménophore, constitué de tubes et terminés par des pores, se sépare facilement de la chair du chapeau. Ce chapeau d'abord rond, recouvert d'une cuticule, devient convexe à mesure qu’il vieillit. Ils ont un pied (stipe) central assez épais et une chair compacte. Les caractéristiques de Suillus grevillei, le Bolet élégant, sont les suivantes :
-Son chapeau mesure 2 à 15 cm, il est visqueux, de couleur jaune citron à orangé vif ou roussâtre[3].
-L'hyménophore présente des tubes jaunes puis jaune olivâtre. Les pores sont fins, concolores aux tubes, brunissant au toucher[3].
-Son stipe mesure 3 à 12 cm x 1 à 3,5 cm, jaune au-dessus d'un anneau blanc puis jaune, orangé roussâtre à la base[3].
-La chair est molle, jaune vif puis assez rapidement crème avec des reflets ou des taches orangées. Sa saveur est douce et son odeur est faible, évoquant celle des cèpes[3], pouvant faire songer aux feuilles de géranium qui ont été chiffonnées[4].
-Réactions chimiques
-Noir verdâtre au KOH sur le chapeau.
-Vert foncé à noir au NH4OH sur le chapeau[5].
-Caractéristiques microscopiques
-Ses spores mesurent 7,5 à 10 μm x 3 à 4 μm, elles sont elliptiques-fusoïdes[3].
 </t>
         </is>
       </c>
@@ -579,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bolet_%C3%A9l%C3%A9gant</t>
+          <t>Bolet_élégant</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -594,14 +599,201 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique grevillei est en hommage au mycologue Robert Kaye Greville.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bolet_élégant</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_%C3%A9l%C3%A9gant</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Noms vulgaires et vernaculaires</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Bolet élégant.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bolet_élégant</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_%C3%A9l%C3%A9gant</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les bolets sont des champignons dont l’hyménophore, constitué de tubes et terminés par des pores, se sépare facilement de la chair du chapeau. Ce chapeau d'abord rond, recouvert d'une cuticule, devient convexe à mesure qu’il vieillit. Ils ont un pied (stipe) central assez épais et une chair compacte. Les caractéristiques de Suillus grevillei, le Bolet élégant, sont les suivantes :
+Son chapeau mesure 2 à 15 cm, il est visqueux, de couleur jaune citron à orangé vif ou roussâtre.
+L'hyménophore présente des tubes jaunes puis jaune olivâtre. Les pores sont fins, concolores aux tubes, brunissant au toucher.
+Son stipe mesure 3 à 12 cm x 1 à 3,5 cm, jaune au-dessus d'un anneau blanc puis jaune, orangé roussâtre à la base.
+La chair est molle, jaune vif puis assez rapidement crème avec des reflets ou des taches orangées. Sa saveur est douce et son odeur est faible, évoquant celle des cèpes, pouvant faire songer aux feuilles de géranium qui ont été chiffonnées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bolet_élégant</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_%C3%A9l%C3%A9gant</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Réactions chimiques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Noir verdâtre au KOH sur le chapeau.
+Vert foncé à noir au NH4OH sur le chapeau.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bolet_élégant</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_%C3%A9l%C3%A9gant</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Caractéristiques microscopiques</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses spores mesurent 7,5 à 10 μm x 3 à 4 μm, elles sont elliptiques-fusoïdes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Bolet_élégant</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bolet_%C3%A9l%C3%A9gant</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Variétés et formes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon MycoBank                                            (25 mars 2024)[1] :
-Suillus grevillei f. badius ou Suillus grevillei var. clintonianus, au chapeau rougeâtre[3].
-Suillus grevillei f. flavus, Forme entièrement jaune citron vif à jaune d'or. Autres caractères semblables à ceux du type (forme pouvant être confondue avec Suillus bresadolae var. flavogriseus)[6].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Selon MycoBank                                            (25 mars 2024) :
+Suillus grevillei f. badius ou Suillus grevillei var. clintonianus, au chapeau rougeâtre.
+Suillus grevillei f. flavus, Forme entièrement jaune citron vif à jaune d'or. Autres caractères semblables à ceux du type (forme pouvant être confondue avec Suillus bresadolae var. flavogriseus).
 Suillus grevillei var. proximus
 Suillus grevillei var. pulchellus</t>
         </is>
